--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="FMSParam_login" sheetId="2" r:id="rId4"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
     <sheet name="TestExecution" sheetId="7" r:id="rId6"/>
+    <sheet name="FMS_AppforFinancialfacility" sheetId="9" r:id="rId7"/>
+    <sheet name="FMS_CollateralManagement" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Password</t>
   </si>
@@ -260,6 +262,81 @@
   </si>
   <si>
     <t>FMS_ParamUser12</t>
+  </si>
+  <si>
+    <t>CIF NO</t>
+  </si>
+  <si>
+    <t>AT_FM_056</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Facility Rating</t>
+  </si>
+  <si>
+    <t>Country of Financing</t>
+  </si>
+  <si>
+    <t>Currency Code</t>
+  </si>
+  <si>
+    <t>Total value</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>Solicitor Name</t>
+  </si>
+  <si>
+    <t>Estimators Name</t>
+  </si>
+  <si>
+    <t>AT_CA_022</t>
+  </si>
+  <si>
+    <t>AT_CA_023</t>
+  </si>
+  <si>
+    <t>AT_CA_021</t>
+  </si>
+  <si>
+    <t>Collateral Type</t>
+  </si>
+  <si>
+    <t>AT_CM_030</t>
+  </si>
+  <si>
+    <t>Valid From Date</t>
+  </si>
+  <si>
+    <t>Valid To Date</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Testdata</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>Collateral Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>24/09/2023</t>
   </si>
 </sst>
 </file>
@@ -444,7 +521,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -514,6 +591,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -852,7 +965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1846,4 +1959,292 @@
   <pageMargins left="0.7" right="0.7" top="8.7188976377952763" bottom="8.7188976377952763" header="8.5220472440944892" footer="8.5220472440944892"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="27" style="40" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="43" customFormat="1">
+      <c r="A1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" ht="15">
+      <c r="A2" s="44">
+        <v>127878</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="46">
+        <v>727</v>
+      </c>
+      <c r="D2" s="46">
+        <v>369</v>
+      </c>
+      <c r="E2" s="46">
+        <v>320</v>
+      </c>
+      <c r="F2" s="46">
+        <v>2</v>
+      </c>
+      <c r="G2" s="46">
+        <v>840</v>
+      </c>
+      <c r="H2" s="46">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="46">
+        <v>1</v>
+      </c>
+      <c r="K2" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="44">
+        <v>1265137</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="46">
+        <v>727</v>
+      </c>
+      <c r="D3" s="46">
+        <v>369</v>
+      </c>
+      <c r="E3" s="46">
+        <v>320</v>
+      </c>
+      <c r="F3" s="46">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46">
+        <v>840</v>
+      </c>
+      <c r="H3" s="46">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="46">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="48">
+        <v>1265138</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="46">
+        <v>727</v>
+      </c>
+      <c r="D4" s="46">
+        <v>369</v>
+      </c>
+      <c r="E4" s="46">
+        <v>320</v>
+      </c>
+      <c r="F4" s="46">
+        <v>2</v>
+      </c>
+      <c r="G4" s="46">
+        <v>840</v>
+      </c>
+      <c r="H4" s="46">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="46">
+        <v>1</v>
+      </c>
+      <c r="K4" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="48">
+        <v>616977</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="46">
+        <v>727</v>
+      </c>
+      <c r="D5" s="46">
+        <v>369</v>
+      </c>
+      <c r="E5" s="46">
+        <v>320</v>
+      </c>
+      <c r="F5" s="46">
+        <v>2</v>
+      </c>
+      <c r="G5" s="46">
+        <v>840</v>
+      </c>
+      <c r="H5" s="46">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="46">
+        <v>1</v>
+      </c>
+      <c r="K5" s="46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="52">
+        <v>280606</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>564</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="51">
+        <v>840</v>
+      </c>
+      <c r="I2" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Password</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>24/09/2023</t>
+  </si>
+  <si>
+    <t>AT_AFF_091</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -627,6 +630,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -965,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1963,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2158,6 +2164,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="55">
+        <v>585803</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="46">
+        <v>727</v>
+      </c>
+      <c r="D6" s="46">
+        <v>369</v>
+      </c>
+      <c r="E6" s="46">
+        <v>320</v>
+      </c>
+      <c r="F6" s="46">
+        <v>2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>840</v>
+      </c>
+      <c r="H6" s="46">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="46">
+        <v>1</v>
+      </c>
+      <c r="K6" s="46">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2168,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="215">
   <si>
     <t>Password</t>
   </si>
@@ -114,232 +114,563 @@
     <t>No</t>
   </si>
   <si>
-    <t>Master Screen Name</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>TestCase Description</t>
-  </si>
-  <si>
-    <t>Test Data File</t>
-  </si>
-  <si>
-    <t>Test Data Set</t>
-  </si>
-  <si>
-    <t>Date of Excecution</t>
-  </si>
-  <si>
-    <t>Execution Count</t>
+    <t>MODEL.B</t>
+  </si>
+  <si>
+    <t>Fms_01</t>
+  </si>
+  <si>
+    <t>Fms_01_D1</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>SYSADM1</t>
+  </si>
+  <si>
+    <t>FMS_User1</t>
+  </si>
+  <si>
+    <t>FMS_User2</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser1</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser2</t>
+  </si>
+  <si>
+    <t>SADS_User1</t>
+  </si>
+  <si>
+    <t>SADS_User2</t>
+  </si>
+  <si>
+    <t>AJITH</t>
+  </si>
+  <si>
+    <t>SANKAR</t>
+  </si>
+  <si>
+    <t>JAY</t>
+  </si>
+  <si>
+    <t>SNEHA</t>
+  </si>
+  <si>
+    <t>KOUSALYA</t>
+  </si>
+  <si>
+    <t>ARUL</t>
+  </si>
+  <si>
+    <t>PRIYANKA</t>
+  </si>
+  <si>
+    <t>RAJAT</t>
+  </si>
+  <si>
+    <t>VIJAYK</t>
+  </si>
+  <si>
+    <t>GOWTHAM</t>
+  </si>
+  <si>
+    <t>FMS_User3</t>
+  </si>
+  <si>
+    <t>FMS_User4</t>
+  </si>
+  <si>
+    <t>FMS_User5</t>
+  </si>
+  <si>
+    <t>FMS_User6</t>
+  </si>
+  <si>
+    <t>FMS_User7</t>
+  </si>
+  <si>
+    <t>FMS_User8</t>
+  </si>
+  <si>
+    <t>FMS_User9</t>
+  </si>
+  <si>
+    <t>FMS_User10</t>
+  </si>
+  <si>
+    <t>FMS_User11</t>
+  </si>
+  <si>
+    <t>FMS_User12</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser3</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser4</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser5</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser6</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser7</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser8</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser9</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser10</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser11</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser12</t>
+  </si>
+  <si>
+    <t>CIF NO</t>
+  </si>
+  <si>
+    <t>AT_FM_056</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Facility Rating</t>
+  </si>
+  <si>
+    <t>Country of Financing</t>
+  </si>
+  <si>
+    <t>Currency Code</t>
+  </si>
+  <si>
+    <t>Total value</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>Solicitor Name</t>
+  </si>
+  <si>
+    <t>Estimators Name</t>
+  </si>
+  <si>
+    <t>AT_CA_022</t>
+  </si>
+  <si>
+    <t>AT_CA_023</t>
+  </si>
+  <si>
+    <t>AT_CA_021</t>
+  </si>
+  <si>
+    <t>Collateral Type</t>
+  </si>
+  <si>
+    <t>AT_CM_030</t>
+  </si>
+  <si>
+    <t>Valid From Date</t>
+  </si>
+  <si>
+    <t>Valid To Date</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Testdata</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>Collateral Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>24/09/2023</t>
+  </si>
+  <si>
+    <t>AT_AFF_091</t>
+  </si>
+  <si>
+    <t>Sprint Details</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Scirpting</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Test Data</t>
   </si>
   <si>
     <t>Status of Execution</t>
   </si>
   <si>
-    <t>MODEL.B</t>
-  </si>
-  <si>
-    <t>Fms_01</t>
-  </si>
-  <si>
-    <t>Fms_01_D1</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>UserType</t>
-  </si>
-  <si>
-    <t>SYSADM1</t>
-  </si>
-  <si>
-    <t>FMS_User1</t>
-  </si>
-  <si>
-    <t>FMS_User2</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser1</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser2</t>
-  </si>
-  <si>
-    <t>SADS_User1</t>
-  </si>
-  <si>
-    <t>SADS_User2</t>
-  </si>
-  <si>
-    <t>AJITH</t>
-  </si>
-  <si>
-    <t>SANKAR</t>
-  </si>
-  <si>
-    <t>JAY</t>
-  </si>
-  <si>
-    <t>SNEHA</t>
-  </si>
-  <si>
-    <t>KOUSALYA</t>
-  </si>
-  <si>
-    <t>ARUL</t>
-  </si>
-  <si>
-    <t>PRIYANKA</t>
-  </si>
-  <si>
-    <t>RAJAT</t>
-  </si>
-  <si>
-    <t>VIJAYK</t>
-  </si>
-  <si>
-    <t>GOWTHAM</t>
-  </si>
-  <si>
-    <t>FMS_User3</t>
-  </si>
-  <si>
-    <t>FMS_User4</t>
-  </si>
-  <si>
-    <t>FMS_User5</t>
-  </si>
-  <si>
-    <t>FMS_User6</t>
-  </si>
-  <si>
-    <t>FMS_User7</t>
-  </si>
-  <si>
-    <t>FMS_User8</t>
-  </si>
-  <si>
-    <t>FMS_User9</t>
-  </si>
-  <si>
-    <t>FMS_User10</t>
-  </si>
-  <si>
-    <t>FMS_User11</t>
-  </si>
-  <si>
-    <t>FMS_User12</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser3</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser4</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser5</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser6</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser7</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser8</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser9</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser10</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser11</t>
-  </si>
-  <si>
-    <t>FMS_ParamUser12</t>
-  </si>
-  <si>
-    <t>CIF NO</t>
-  </si>
-  <si>
-    <t>AT_FM_056</t>
-  </si>
-  <si>
-    <t>Facility Type</t>
-  </si>
-  <si>
-    <t>Facility Rating</t>
-  </si>
-  <si>
-    <t>Country of Financing</t>
-  </si>
-  <si>
-    <t>Currency Code</t>
-  </si>
-  <si>
-    <t>Total value</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>10/10/2024</t>
-  </si>
-  <si>
-    <t>Solicitor Name</t>
-  </si>
-  <si>
-    <t>Estimators Name</t>
-  </si>
-  <si>
-    <t>AT_CA_022</t>
-  </si>
-  <si>
-    <t>AT_CA_023</t>
-  </si>
-  <si>
-    <t>AT_CA_021</t>
-  </si>
-  <si>
-    <t>Collateral Type</t>
-  </si>
-  <si>
-    <t>AT_CM_030</t>
-  </si>
-  <si>
-    <t>Valid From Date</t>
-  </si>
-  <si>
-    <t>Valid To Date</t>
-  </si>
-  <si>
-    <t>Brief Description</t>
-  </si>
-  <si>
-    <t>Testdata</t>
-  </si>
-  <si>
-    <t>Long Description</t>
-  </si>
-  <si>
-    <t>Collateral Currency</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>16/01/2021</t>
-  </si>
-  <si>
-    <t>24/09/2023</t>
-  </si>
-  <si>
-    <t>AT_AFF_091</t>
+    <t>Feature File Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sprint-1</t>
+  </si>
+  <si>
+    <t>AT_AFF_038</t>
+  </si>
+  <si>
+    <t>partially completed/blocked</t>
+  </si>
+  <si>
+    <t>yet to get defect id from johns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to do </t>
+  </si>
+  <si>
+    <t>Application for Financial Facility</t>
+  </si>
+  <si>
+    <t>AT_AFF_042</t>
+  </si>
+  <si>
+    <t>completed/blocked</t>
+  </si>
+  <si>
+    <t>AT_AFF_046</t>
+  </si>
+  <si>
+    <t>Forward to sprint 2</t>
+  </si>
+  <si>
+    <t>AT_AFF_050</t>
+  </si>
+  <si>
+    <t>KT not given for IIS application</t>
+  </si>
+  <si>
+    <t>AT_AFF_054</t>
+  </si>
+  <si>
+    <t>AT_AFF_058</t>
+  </si>
+  <si>
+    <t>Johns have doubt on this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sprint-2</t>
+  </si>
+  <si>
+    <t>Not completed</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>AT_AFF_065</t>
+  </si>
+  <si>
+    <t>AT_AFF_066</t>
+  </si>
+  <si>
+    <t>AT_AFF_067</t>
+  </si>
+  <si>
+    <t>sprint-3</t>
+  </si>
+  <si>
+    <t>AT_RF_029</t>
+  </si>
+  <si>
+    <t>Request For Financing</t>
+  </si>
+  <si>
+    <t>AT_RF_030</t>
+  </si>
+  <si>
+    <t>descoped/duplicate</t>
+  </si>
+  <si>
+    <t>AT_RF_031</t>
+  </si>
+  <si>
+    <t>AT_RF_036</t>
+  </si>
+  <si>
+    <t>Hold by johns,due to Maintenance is not working</t>
+  </si>
+  <si>
+    <t>AT_RF_039</t>
+  </si>
+  <si>
+    <t>AT_RF_042</t>
+  </si>
+  <si>
+    <t>AT_RF_043</t>
+  </si>
+  <si>
+    <t>sprint-4</t>
+  </si>
+  <si>
+    <t>AT_RF_076</t>
+  </si>
+  <si>
+    <t>AT_RF_038</t>
+  </si>
+  <si>
+    <t>AT_RF_041</t>
+  </si>
+  <si>
+    <t>AT_RF_077</t>
+  </si>
+  <si>
+    <t>Descoped</t>
+  </si>
+  <si>
+    <t>ITFC related</t>
+  </si>
+  <si>
+    <t>AT_RF_078</t>
+  </si>
+  <si>
+    <t>AT_RF_079</t>
+  </si>
+  <si>
+    <t>AT_RF_110</t>
+  </si>
+  <si>
+    <t>AT_RF_111</t>
+  </si>
+  <si>
+    <t>AT_RF_112</t>
+  </si>
+  <si>
+    <t>AT_RF_114</t>
+  </si>
+  <si>
+    <t>sprint-5</t>
+  </si>
+  <si>
+    <t>need to write script for param</t>
+  </si>
+  <si>
+    <t>Application for Financial Facilities</t>
+  </si>
+  <si>
+    <t>AT_RF_151</t>
+  </si>
+  <si>
+    <t>AT_RF_152</t>
+  </si>
+  <si>
+    <t>AT_RF_168</t>
+  </si>
+  <si>
+    <t>AT_RF_169</t>
+  </si>
+  <si>
+    <t>sprint_6</t>
+  </si>
+  <si>
+    <t>AT_FM_029</t>
+  </si>
+  <si>
+    <t>Facilities Management</t>
+  </si>
+  <si>
+    <t>AT_FM_030</t>
+  </si>
+  <si>
+    <t>AT_FM_031</t>
+  </si>
+  <si>
+    <t>AT_FM_032</t>
+  </si>
+  <si>
+    <t>IMAL_6538</t>
+  </si>
+  <si>
+    <t>defect</t>
+  </si>
+  <si>
+    <t>AT_FM_033</t>
+  </si>
+  <si>
+    <t>db related issue, request from johns to hold</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>AT_FM_055</t>
+  </si>
+  <si>
+    <t>FMS Part completed, IIS Clarification required</t>
+  </si>
+  <si>
+    <t>sprint_7</t>
+  </si>
+  <si>
+    <t>AT_FM_079</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Defect/ IMAL-7379</t>
+  </si>
+  <si>
+    <t>AT_FM_090</t>
+  </si>
+  <si>
+    <t>completed/Blocked</t>
+  </si>
+  <si>
+    <t>Defect/IMAL-7332</t>
+  </si>
+  <si>
+    <t>AT_FM_091</t>
+  </si>
+  <si>
+    <t>completd</t>
+  </si>
+  <si>
+    <t>AT_FM_092</t>
+  </si>
+  <si>
+    <t>AT_FM_093</t>
+  </si>
+  <si>
+    <t>Descoped/Duplicate TC</t>
+  </si>
+  <si>
+    <t>AT_FM_094</t>
+  </si>
+  <si>
+    <t>Defect/IMAL-7440</t>
+  </si>
+  <si>
+    <t>AT_FM_095</t>
+  </si>
+  <si>
+    <t>AT_FM_059</t>
+  </si>
+  <si>
+    <t>sprint_8</t>
+  </si>
+  <si>
+    <t>AT_DDR_026</t>
+  </si>
+  <si>
+    <t>Draw Down Request</t>
+  </si>
+  <si>
+    <t>AT_DDR_027</t>
+  </si>
+  <si>
+    <t>ITFC training required</t>
+  </si>
+  <si>
+    <t>AT_DDR_028</t>
+  </si>
+  <si>
+    <t>AT_DDR_029</t>
+  </si>
+  <si>
+    <t>AT_DDR_030</t>
+  </si>
+  <si>
+    <t>Fms Part need to do
+IIS part pending due to clarifications needed</t>
+  </si>
+  <si>
+    <t>AT_CM_009</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Collateral Management</t>
+  </si>
+  <si>
+    <t>sprint_9</t>
+  </si>
+  <si>
+    <t>AT_CM_049</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webservice on Hold </t>
+  </si>
+  <si>
+    <t>AT_CM_050</t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>IMAL-7555</t>
+  </si>
+  <si>
+    <t>AT_CM_051</t>
+  </si>
+  <si>
+    <t>AT_CM_052</t>
+  </si>
+  <si>
+    <t>AT_CM_053</t>
+  </si>
+  <si>
+    <t>AT_CM_054</t>
+  </si>
+  <si>
+    <t>IIS related, clarifications needed</t>
+  </si>
+  <si>
+    <t>Committee Approval</t>
+  </si>
+  <si>
+    <t>No Of Payment</t>
+  </si>
+  <si>
+    <t>AT_RP_003</t>
+  </si>
+  <si>
+    <t>AT_RP_001</t>
   </si>
 </sst>
 </file>
@@ -471,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -509,6 +840,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -524,7 +868,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -561,30 +905,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -613,12 +934,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,6 +948,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -971,7 +1335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,201 +1343,1812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.5703125" style="3" customWidth="1" collapsed="1"/>
     <col min="9" max="16384" width="28.85546875" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
+      <c r="A2" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="44">
+        <v>862778</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="47">
+        <v>771445</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="47">
+        <v>280446</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="47">
+        <v>299876</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="47">
+        <v>299492</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="A7" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="47">
+        <v>347028</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="47">
+        <v>280446</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="47">
+        <v>585803</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="47">
+        <v>570631</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="47">
+        <v>127917</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="47">
+        <v>127925</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="47">
+        <v>127926</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="49">
+        <v>127925</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="49">
+        <v>678142</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="49">
+        <v>678143</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="49">
+        <v>678324</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="49">
+        <v>653133</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="49">
+        <v>654404</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="49">
+        <v>640897</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="49">
+        <v>640956</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="49">
+        <v>434947</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="49">
+        <v>654367</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="49"/>
+      <c r="F29" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="49">
+        <v>640874</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="49">
+        <v>468154</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="49">
+        <v>468161</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="49">
+        <v>468167</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="49">
+        <v>584047</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="49"/>
+      <c r="F34" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="49">
+        <v>584557</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="49">
+        <v>585161</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="49">
+        <v>584744</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="49"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="49">
+        <v>771445</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="49"/>
+      <c r="F40" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="49">
+        <v>299876</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="49">
+        <v>299492</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="49">
+        <v>749202</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="49">
+        <v>759182</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="49">
+        <v>127919</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="49">
+        <v>127920</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="49">
+        <v>808942</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="49">
+        <v>809575</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="49">
+        <v>841963</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="49">
+        <v>850741</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="49">
+        <v>868316</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="49">
+        <v>127874</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="49">
+        <v>127878</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="49">
+        <v>396824</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="49">
+        <v>586558</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="49">
+        <v>586526</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="49">
+        <v>586527</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="49">
+        <v>586528</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="48"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="49">
+        <v>827643</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="49">
+        <v>827644</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="49">
+        <v>140587</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="49">
+        <v>140601</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="49">
+        <v>326293</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="49">
+        <v>316166</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="49">
+        <v>326280</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45">
+      <c r="A72" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="49">
+        <v>402676</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="49">
+        <v>879358</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="49">
+        <v>1057763</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="49">
+        <v>1090798</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="49">
+        <v>1090800</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="49">
+        <v>1090801</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="49">
+        <v>1090803</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="49">
+        <v>1166910</v>
+      </c>
+      <c r="C81" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="H81" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="49">
+        <v>616977</v>
+      </c>
+      <c r="C82" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="49">
+        <v>1265137</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="49">
+        <v>1265138</v>
+      </c>
+      <c r="C84" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.5870078740157476" bottom="4.5870078740157476" header="4.3901574803149597" footer="4.3901574803149597"/>
@@ -1198,49 +3173,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="34"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="35"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="6"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1269,28 +3244,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1304,7 +3279,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1321,10 +3296,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>321</v>
@@ -1338,10 +3313,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>321</v>
@@ -1355,10 +3330,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>321</v>
@@ -1372,10 +3347,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>321</v>
@@ -1389,10 +3364,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -1406,10 +3381,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -1423,10 +3398,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>321</v>
@@ -1440,10 +3415,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>321</v>
@@ -1457,10 +3432,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>321</v>
@@ -1474,10 +3449,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1514,28 +3489,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1549,7 +3524,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1566,10 +3541,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>321</v>
@@ -1583,10 +3558,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>321</v>
@@ -1600,10 +3575,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>321</v>
@@ -1617,10 +3592,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>321</v>
@@ -1634,10 +3609,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -1651,10 +3626,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -1668,10 +3643,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>321</v>
@@ -1685,10 +3660,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>321</v>
@@ -1702,10 +3677,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>321</v>
@@ -1719,10 +3694,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1757,19 +3732,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1780,10 +3755,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>123</v>
@@ -1853,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>28</v>
@@ -1969,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1984,219 +3959,302 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="27" style="40" customWidth="1"/>
+    <col min="9" max="9" width="27" style="29" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1">
-      <c r="A1" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:12" s="32" customFormat="1">
+      <c r="A1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="J1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="K1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="28" customFormat="1" ht="15">
+      <c r="A2" s="33">
+        <v>127878</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="56">
+        <v>727</v>
+      </c>
+      <c r="D2" s="56">
+        <v>369</v>
+      </c>
+      <c r="E2" s="56">
+        <v>320</v>
+      </c>
+      <c r="F2" s="56">
+        <v>2</v>
+      </c>
+      <c r="G2" s="56">
+        <v>840</v>
+      </c>
+      <c r="H2" s="56">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="56">
+        <v>1</v>
+      </c>
+      <c r="K2" s="58">
+        <v>1</v>
+      </c>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="33">
+        <v>1265137</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="C3" s="56">
+        <v>727</v>
+      </c>
+      <c r="D3" s="56">
+        <v>369</v>
+      </c>
+      <c r="E3" s="56">
+        <v>320</v>
+      </c>
+      <c r="F3" s="56">
+        <v>2</v>
+      </c>
+      <c r="G3" s="56">
+        <v>840</v>
+      </c>
+      <c r="H3" s="56">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="56">
+        <v>1</v>
+      </c>
+      <c r="K3" s="58">
+        <v>1</v>
+      </c>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="35">
+        <v>1265138</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="C4" s="56">
+        <v>727</v>
+      </c>
+      <c r="D4" s="56">
+        <v>369</v>
+      </c>
+      <c r="E4" s="56">
+        <v>320</v>
+      </c>
+      <c r="F4" s="56">
+        <v>2</v>
+      </c>
+      <c r="G4" s="56">
+        <v>840</v>
+      </c>
+      <c r="H4" s="56">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="56">
+        <v>1</v>
+      </c>
+      <c r="K4" s="58">
+        <v>1</v>
+      </c>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="35">
+        <v>616977</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" ht="15">
-      <c r="A2" s="44">
-        <v>127878</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="C5" s="56">
+        <v>727</v>
+      </c>
+      <c r="D5" s="56">
+        <v>369</v>
+      </c>
+      <c r="E5" s="56">
+        <v>320</v>
+      </c>
+      <c r="F5" s="56">
+        <v>2</v>
+      </c>
+      <c r="G5" s="56">
+        <v>840</v>
+      </c>
+      <c r="H5" s="56">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="46">
+      <c r="J5" s="56">
+        <v>1</v>
+      </c>
+      <c r="K5" s="58">
+        <v>1</v>
+      </c>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="42">
+        <v>585803</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="56">
         <v>727</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D6" s="56">
         <v>369</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E6" s="56">
         <v>320</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F6" s="56">
         <v>2</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G6" s="56">
         <v>840</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H6" s="56">
         <v>10000</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="46">
-        <v>1</v>
-      </c>
-      <c r="K2" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="44">
-        <v>1265137</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="I6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="56">
+        <v>1</v>
+      </c>
+      <c r="K6" s="58">
+        <v>1</v>
+      </c>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="35">
+        <v>956327</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="56">
         <v>727</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D7" s="56">
         <v>369</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E7" s="56">
         <v>320</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F7" s="56">
         <v>2</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G7" s="56">
         <v>840</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H7" s="56">
         <v>10000</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="46">
-        <v>1</v>
-      </c>
-      <c r="K3" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="48">
-        <v>1265138</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="I7" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="56">
+        <v>1</v>
+      </c>
+      <c r="K7" s="58">
+        <v>1</v>
+      </c>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="35">
+        <v>594207</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="56">
         <v>727</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D8" s="56">
         <v>369</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E8" s="56">
         <v>320</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F8" s="56">
         <v>2</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G8" s="56">
         <v>840</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H8" s="56">
         <v>10000</v>
       </c>
-      <c r="I4" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="46">
-        <v>1</v>
-      </c>
-      <c r="K4" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="48">
-        <v>616977</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="46">
-        <v>727</v>
-      </c>
-      <c r="D5" s="46">
-        <v>369</v>
-      </c>
-      <c r="E5" s="46">
-        <v>320</v>
-      </c>
-      <c r="F5" s="46">
-        <v>2</v>
-      </c>
-      <c r="G5" s="46">
-        <v>840</v>
-      </c>
-      <c r="H5" s="46">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="46">
-        <v>1</v>
-      </c>
-      <c r="K5" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="55">
-        <v>585803</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="46">
-        <v>727</v>
-      </c>
-      <c r="D6" s="46">
-        <v>369</v>
-      </c>
-      <c r="E6" s="46">
-        <v>320</v>
-      </c>
-      <c r="F6" s="46">
-        <v>2</v>
-      </c>
-      <c r="G6" s="46">
-        <v>840</v>
-      </c>
-      <c r="H6" s="46">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="46">
-        <v>1</v>
-      </c>
-      <c r="K6" s="46">
-        <v>1</v>
+      <c r="I8" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="56">
+        <v>1</v>
+      </c>
+      <c r="K8" s="58">
+        <v>1</v>
+      </c>
+      <c r="L8" s="56">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +4268,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2218,8 +4276,8 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="29" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
@@ -2227,60 +4285,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="52">
+      <c r="A2" s="39">
         <v>280606</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>94</v>
+      <c r="B2" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="C2">
         <v>564</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="51">
+      <c r="D2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="38">
         <v>840</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="38">
         <v>1000</v>
       </c>
     </row>

--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="217">
   <si>
     <t>Password</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>AT_RP_001</t>
+  </si>
+  <si>
+    <t>AT_RP_005</t>
+  </si>
+  <si>
+    <t>AT_RP_004</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -934,20 +940,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,9 +978,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,6 +991,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1335,7 +1333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1389,1764 +1387,1764 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="41">
         <v>862778</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <v>771445</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="49" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="44">
         <v>280446</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="49" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>299876</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="49" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="44">
         <v>299492</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="49" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="44">
         <v>347028</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="44">
         <v>280446</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="44">
         <v>585803</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="49" t="s">
+      <c r="E11" s="44"/>
+      <c r="F11" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="44">
         <v>570631</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="44">
         <v>127917</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="49" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="44">
         <v>127925</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="49" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="44">
         <v>127926</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="49" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="46">
         <v>127925</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="49" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="46">
         <v>678142</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="49" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="46">
         <v>678143</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="48" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="46">
         <v>678324</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="49" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="46">
         <v>653133</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="48" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="46">
         <v>654404</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="48" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="46">
         <v>640897</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="46">
         <v>640956</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="46">
         <v>434947</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="49" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="46">
         <v>654367</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="48" t="s">
+      <c r="E29" s="46"/>
+      <c r="F29" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="46">
         <v>640874</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="49" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="46">
         <v>468154</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="48" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="46">
         <v>468161</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="48" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="46">
         <v>468167</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="48" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="46">
         <v>584047</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="48" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="46">
         <v>584557</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="49" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="46">
         <v>585161</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="48" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="46">
         <v>584744</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="49"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="46">
         <v>771445</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="48" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="46" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="46">
         <v>299876</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="48" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="46" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="46">
         <v>299492</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="48" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="H42" s="46" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="46">
         <v>749202</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="E43" s="46"/>
+      <c r="F43" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="46">
         <v>759182</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="E44" s="46"/>
+      <c r="F44" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="46">
         <v>127919</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="49" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="46">
         <v>127920</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="49" t="s">
+      <c r="E46" s="46"/>
+      <c r="F46" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="46">
         <v>808942</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="49" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="46">
         <v>809575</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="49" t="s">
+      <c r="E50" s="46"/>
+      <c r="F50" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="46">
         <v>841963</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="49" t="s">
+      <c r="E51" s="46"/>
+      <c r="F51" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="46">
         <v>850741</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="H52" s="49" t="s">
+      <c r="H52" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="46">
         <v>868316</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="H53" s="49" t="s">
+      <c r="H53" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="46">
         <v>127874</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="49" t="s">
+      <c r="H54" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="46">
         <v>127878</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="H55" s="49" t="s">
+      <c r="H55" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="46">
         <v>396824</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="49" t="s">
+      <c r="G58" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H58" s="49" t="s">
+      <c r="H58" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="46">
         <v>586558</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="49" t="s">
+      <c r="F59" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H59" s="49" t="s">
+      <c r="H59" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="46">
         <v>586526</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H60" s="49" t="s">
+      <c r="E60" s="46"/>
+      <c r="F60" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="46">
         <v>586527</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="49" t="s">
+      <c r="F61" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H61" s="49" t="s">
+      <c r="H61" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="46">
         <v>586528</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F62" s="48"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49" t="s">
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="46">
         <v>827643</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="46">
         <v>827644</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="48" t="s">
+      <c r="F64" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H64" s="49" t="s">
+      <c r="H64" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="46">
         <v>140587</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49" t="s">
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="46">
         <v>140601</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49" t="s">
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="46">
         <v>326293</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="49" t="s">
+      <c r="G69" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="H69" s="49" t="s">
+      <c r="H69" s="46" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="46">
         <v>316166</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49" t="s">
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="46">
         <v>326280</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="F71" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="G71" s="49" t="s">
+      <c r="G71" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="H71" s="49" t="s">
+      <c r="H71" s="46" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="45">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="46">
         <v>402676</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F72" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G72" s="52" t="s">
+      <c r="G72" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="H72" s="49" t="s">
+      <c r="H72" s="46" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="46">
         <v>879358</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="E73" s="49" t="s">
+      <c r="E73" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="H73" s="49" t="s">
+      <c r="H73" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="46">
         <v>1057763</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G76" s="49" t="s">
+      <c r="G76" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="H76" s="49" t="s">
+      <c r="H76" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="46">
         <v>1090798</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E77" s="49" t="s">
+      <c r="E77" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G77" s="49" t="s">
+      <c r="G77" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H77" s="49" t="s">
+      <c r="H77" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B78" s="46">
         <v>1090800</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E78" s="49" t="s">
+      <c r="E78" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="F78" s="48" t="s">
+      <c r="F78" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G78" s="49" t="s">
+      <c r="G78" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H78" s="49" t="s">
+      <c r="H78" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B79" s="49">
+      <c r="B79" s="46">
         <v>1090801</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H79" s="49" t="s">
+      <c r="H79" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="49">
+      <c r="B80" s="46">
         <v>1090803</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H80" s="49" t="s">
+      <c r="H80" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="49">
+      <c r="B81" s="46">
         <v>1166910</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G81" s="49" t="s">
+      <c r="G81" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="H81" s="49" t="s">
+      <c r="H81" s="46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B82" s="49">
+      <c r="B82" s="46">
         <v>616977</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49" t="s">
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="49">
+      <c r="B83" s="46">
         <v>1265137</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49" t="s">
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B84" s="49">
+      <c r="B84" s="46">
         <v>1265138</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49" t="s">
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3944,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3999,7 +3997,7 @@
       <c r="K1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="51" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4010,34 +4008,34 @@
       <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="52">
         <v>727</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="52">
         <v>369</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="52">
         <v>320</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="52">
         <v>2</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="52">
         <v>840</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="52">
         <v>10000</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="56">
-        <v>1</v>
-      </c>
-      <c r="K2" s="58">
-        <v>1</v>
-      </c>
-      <c r="L2" s="56"/>
+      <c r="J2" s="52">
+        <v>1</v>
+      </c>
+      <c r="K2" s="54">
+        <v>1</v>
+      </c>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="33">
@@ -4046,214 +4044,287 @@
       <c r="B3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="52">
         <v>727</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="52">
         <v>369</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="52">
         <v>320</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="52">
         <v>2</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="52">
         <v>840</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="52">
         <v>10000</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="56">
-        <v>1</v>
-      </c>
-      <c r="K3" s="58">
-        <v>1</v>
-      </c>
-      <c r="L3" s="59"/>
+      <c r="J3" s="52">
+        <v>1</v>
+      </c>
+      <c r="K3" s="54">
+        <v>1</v>
+      </c>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="35">
+      <c r="A4" s="33">
         <v>1265138</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="52">
         <v>727</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="52">
         <v>369</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="52">
         <v>320</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="52">
         <v>2</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="52">
         <v>840</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="52">
         <v>10000</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="56">
-        <v>1</v>
-      </c>
-      <c r="K4" s="58">
-        <v>1</v>
-      </c>
-      <c r="L4" s="59"/>
+      <c r="J4" s="52">
+        <v>1</v>
+      </c>
+      <c r="K4" s="54">
+        <v>1</v>
+      </c>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>616977</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="52">
         <v>727</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="52">
         <v>369</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="52">
         <v>320</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="52">
         <v>2</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="52">
         <v>840</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="52">
         <v>10000</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="56">
-        <v>1</v>
-      </c>
-      <c r="K5" s="58">
-        <v>1</v>
-      </c>
-      <c r="L5" s="59"/>
+      <c r="J5" s="52">
+        <v>1</v>
+      </c>
+      <c r="K5" s="54">
+        <v>1</v>
+      </c>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="42">
+      <c r="A6" s="33">
         <v>585803</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="52">
         <v>727</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="52">
         <v>369</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="52">
         <v>320</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="52">
         <v>2</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="52">
         <v>840</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="52">
         <v>10000</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="56">
-        <v>1</v>
-      </c>
-      <c r="K6" s="58">
-        <v>1</v>
-      </c>
-      <c r="L6" s="59"/>
+      <c r="J6" s="52">
+        <v>1</v>
+      </c>
+      <c r="K6" s="54">
+        <v>1</v>
+      </c>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>956327</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="52">
         <v>727</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="52">
         <v>369</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="52">
         <v>320</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="52">
         <v>2</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="52">
         <v>840</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="52">
         <v>10000</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="56">
-        <v>1</v>
-      </c>
-      <c r="K7" s="58">
-        <v>1</v>
-      </c>
-      <c r="L7" s="59"/>
+      <c r="J7" s="52">
+        <v>1</v>
+      </c>
+      <c r="K7" s="54">
+        <v>1</v>
+      </c>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="35">
+      <c r="A8" s="33">
         <v>594207</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="52">
         <v>727</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="52">
         <v>369</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="52">
         <v>320</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="52">
         <v>2</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="52">
         <v>840</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="52">
         <v>10000</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="56">
-        <v>1</v>
-      </c>
-      <c r="K8" s="58">
-        <v>1</v>
-      </c>
-      <c r="L8" s="56">
+      <c r="J8" s="52">
+        <v>1</v>
+      </c>
+      <c r="K8" s="54">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="33">
+        <v>834702</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="52">
+        <v>727</v>
+      </c>
+      <c r="D9" s="52">
+        <v>369</v>
+      </c>
+      <c r="E9" s="52">
+        <v>320</v>
+      </c>
+      <c r="F9" s="52">
+        <v>2</v>
+      </c>
+      <c r="G9" s="52">
+        <v>840</v>
+      </c>
+      <c r="H9" s="52">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="52">
+        <v>1</v>
+      </c>
+      <c r="K9" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="33">
+        <v>816212</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="52">
+        <v>727</v>
+      </c>
+      <c r="D10" s="52">
+        <v>369</v>
+      </c>
+      <c r="E10" s="52">
+        <v>320</v>
+      </c>
+      <c r="F10" s="52">
+        <v>2</v>
+      </c>
+      <c r="G10" s="52">
+        <v>840</v>
+      </c>
+      <c r="H10" s="52">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="52">
+        <v>1</v>
+      </c>
+      <c r="K10" s="52">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52">
         <v>70</v>
       </c>
     </row>
@@ -4291,7 +4362,7 @@
       <c r="B1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>86</v>
       </c>
       <c r="D1" s="29" t="s">
@@ -4314,31 +4385,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="39">
+      <c r="A2" s="37">
         <v>280606</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C2">
         <v>564</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="36">
         <v>840</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="36">
         <v>1000</v>
       </c>
     </row>

--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="225">
   <si>
     <t>Password</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Country of Financing</t>
   </si>
   <si>
-    <t>Currency Code</t>
-  </si>
-  <si>
     <t>Total value</t>
   </si>
   <si>
@@ -677,6 +674,33 @@
   </si>
   <si>
     <t>AT_RP_004</t>
+  </si>
+  <si>
+    <t>PCValue</t>
+  </si>
+  <si>
+    <t>Floating Rate</t>
+  </si>
+  <si>
+    <t>FRPeriodicity</t>
+  </si>
+  <si>
+    <t>AFFYieldetails</t>
+  </si>
+  <si>
+    <t>AFFMarginRate</t>
+  </si>
+  <si>
+    <t>SolicitorName</t>
+  </si>
+  <si>
+    <t>EstimatorName</t>
+  </si>
+  <si>
+    <t>FMYieldetails</t>
+  </si>
+  <si>
+    <t>FMMarginRate</t>
   </si>
 </sst>
 </file>
@@ -758,7 +782,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,8 +831,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -859,6 +889,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -874,7 +917,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -978,9 +1021,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,6 +1035,20 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1344,7 +1398,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
@@ -1362,174 +1416,174 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="41">
         <v>862778</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>108</v>
-      </c>
       <c r="F2" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>109</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="44">
         <v>771445</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>112</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="44">
         <v>280446</v>
       </c>
       <c r="C4" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>114</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="44">
         <v>299876</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>116</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="44">
         <v>299492</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="44">
         <v>347028</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1554,140 +1608,140 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="44">
         <v>280446</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="44">
         <v>585803</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="44">
         <v>570631</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="44">
         <v>127917</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="44">
         <v>127925</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="44">
         <v>127926</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1712,194 +1766,194 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="46">
         <v>127925</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="46">
         <v>678142</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="46">
         <v>678143</v>
       </c>
       <c r="C20" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>130</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>131</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="46">
         <v>678324</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="46">
         <v>653133</v>
       </c>
       <c r="C22" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>133</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>134</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="46">
         <v>654404</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="46">
         <v>640897</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="46">
         <v>640956</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1924,239 +1978,239 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="46">
         <v>434947</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="46">
         <v>654367</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="46">
         <v>640874</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="46">
         <v>468154</v>
       </c>
       <c r="C31" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>142</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>143</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="46" t="s">
-        <v>144</v>
-      </c>
       <c r="H31" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="46">
         <v>468161</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="46" t="s">
-        <v>144</v>
-      </c>
       <c r="H32" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="46">
         <v>468167</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="46" t="s">
-        <v>144</v>
-      </c>
       <c r="H33" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="46">
         <v>584047</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="46" t="s">
-        <v>144</v>
-      </c>
       <c r="H34" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="46">
         <v>584557</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="46">
         <v>585161</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="46">
         <v>584744</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="46"/>
     </row>
@@ -2182,170 +2236,170 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="46">
         <v>771445</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="46" t="s">
         <v>152</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="46">
         <v>299876</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="46">
         <v>299492</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="46">
         <v>749202</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H43" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" s="46">
         <v>759182</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="46">
         <v>127919</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="46">
         <v>127920</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H46" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2370,157 +2424,157 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" s="46">
         <v>808942</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="46">
         <v>809575</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51" s="46">
         <v>841963</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="46">
         <v>850741</v>
       </c>
       <c r="C52" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="46" t="s">
+      <c r="F52" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="45" t="s">
-        <v>165</v>
-      </c>
       <c r="G52" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" s="46">
         <v>868316</v>
       </c>
       <c r="C53" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="46" t="s">
+      <c r="F53" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="45" t="s">
-        <v>168</v>
-      </c>
       <c r="G53" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="46">
         <v>127874</v>
       </c>
       <c r="C54" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>170</v>
-      </c>
       <c r="F54" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="46">
         <v>127878</v>
@@ -2529,19 +2583,19 @@
         <v>73</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2566,196 +2620,196 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B58" s="46">
         <v>396824</v>
       </c>
       <c r="C58" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="E58" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>174</v>
-      </c>
       <c r="F58" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H58" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="46">
         <v>586558</v>
       </c>
       <c r="C59" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="E59" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="F59" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="46">
         <v>586526</v>
       </c>
       <c r="C60" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>178</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>179</v>
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H60" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" s="46">
         <v>586527</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="F61" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H61" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B62" s="46">
         <v>586528</v>
       </c>
       <c r="C62" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="46" t="s">
-        <v>182</v>
-      </c>
       <c r="E62" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F62" s="45"/>
       <c r="G62" s="46"/>
       <c r="H62" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B63" s="46">
         <v>827643</v>
       </c>
       <c r="C63" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" s="46" t="s">
-        <v>184</v>
-      </c>
       <c r="F63" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="46">
         <v>827644</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H64" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" s="46">
         <v>140587</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="46"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="46"/>
       <c r="H65" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2780,142 +2834,142 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="46">
         <v>140601</v>
       </c>
       <c r="C68" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="46"/>
       <c r="E68" s="46"/>
       <c r="F68" s="45"/>
       <c r="G68" s="46"/>
       <c r="H68" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="46">
         <v>326293</v>
       </c>
       <c r="C69" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="46" t="s">
-        <v>191</v>
-      </c>
       <c r="E69" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G69" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H69" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B70" s="46">
         <v>316166</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="46"/>
       <c r="E70" s="46"/>
       <c r="F70" s="45"/>
       <c r="G70" s="46"/>
       <c r="H70" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="46">
         <v>326280</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G71" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H71" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="45">
       <c r="A72" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="46">
         <v>402676</v>
       </c>
       <c r="C72" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="49" t="s">
-        <v>195</v>
-      </c>
       <c r="E72" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F72" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G72" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H72" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" s="46">
         <v>879358</v>
       </c>
       <c r="C73" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="E73" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="46" t="s">
         <v>197</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2940,212 +2994,212 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="46">
         <v>1057763</v>
       </c>
       <c r="C76" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="E76" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="46" t="s">
-        <v>202</v>
-      </c>
       <c r="F76" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="G76" s="46" t="s">
-        <v>202</v>
-      </c>
       <c r="H76" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B77" s="46">
         <v>1090798</v>
       </c>
       <c r="C77" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="E77" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E77" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="F77" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G77" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="H77" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="46">
         <v>1090800</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D78" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E78" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="F78" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G78" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="H78" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" s="46">
         <v>1090801</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="F79" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="H79" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" s="46">
         <v>1090803</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E80" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="F80" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G80" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G80" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="H80" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B81" s="46">
         <v>1166910</v>
       </c>
       <c r="C81" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="46" t="s">
-        <v>210</v>
-      </c>
       <c r="F81" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G81" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H81" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82" s="46">
         <v>616977</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="46"/>
       <c r="E82" s="46"/>
       <c r="F82" s="45"/>
       <c r="G82" s="46"/>
       <c r="H82" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83" s="46">
         <v>1265137</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="46"/>
       <c r="E83" s="46"/>
       <c r="F83" s="45"/>
       <c r="G83" s="46"/>
       <c r="H83" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="46">
         <v>1265138</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="46"/>
       <c r="E84" s="46"/>
       <c r="F84" s="45"/>
       <c r="G84" s="46"/>
       <c r="H84" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3942,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3955,15 +4009,22 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="27" style="29" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="27" style="29" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1">
+    <row r="1" spans="1:20" s="32" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
@@ -3985,347 +4046,484 @@
       <c r="G1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>79</v>
+      <c r="I1" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="28" customFormat="1" ht="15">
+      <c r="K1" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="28" customFormat="1" ht="15">
       <c r="A2" s="33">
         <v>127878</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="51">
         <v>727</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="51">
         <v>369</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="51">
         <v>320</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="51">
         <v>2</v>
       </c>
-      <c r="G2" s="52">
-        <v>840</v>
-      </c>
-      <c r="H2" s="52">
+      <c r="G2" s="51">
         <v>10000</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="52">
-        <v>1</v>
-      </c>
-      <c r="K2" s="54">
-        <v>1</v>
-      </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" ht="15">
+      <c r="H2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="51">
+        <v>1</v>
+      </c>
+      <c r="J2" s="53">
+        <v>1</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="15">
       <c r="A3" s="33">
         <v>1265137</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="52">
+        <v>82</v>
+      </c>
+      <c r="C3" s="51">
         <v>727</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <v>369</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <v>320</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>2</v>
       </c>
-      <c r="G3" s="52">
-        <v>840</v>
-      </c>
-      <c r="H3" s="52">
+      <c r="G3" s="51">
         <v>10000</v>
       </c>
-      <c r="I3" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="52">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54">
-        <v>1</v>
-      </c>
-      <c r="L3" s="55"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="H3" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="51">
+        <v>1</v>
+      </c>
+      <c r="J3" s="53">
+        <v>1</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="33">
         <v>1265138</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="52">
+      <c r="B4" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="51">
         <v>727</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <v>369</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <v>320</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <v>2</v>
       </c>
-      <c r="G4" s="52">
-        <v>840</v>
-      </c>
-      <c r="H4" s="52">
+      <c r="G4" s="51">
         <v>10000</v>
       </c>
-      <c r="I4" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="52">
-        <v>1</v>
-      </c>
-      <c r="K4" s="54">
-        <v>1</v>
-      </c>
-      <c r="L4" s="55"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="H4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="51">
+        <v>1</v>
+      </c>
+      <c r="J4" s="53">
+        <v>1</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="33">
         <v>616977</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="52">
+        <v>84</v>
+      </c>
+      <c r="C5" s="51">
         <v>727</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <v>369</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <v>320</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <v>2</v>
       </c>
-      <c r="G5" s="52">
-        <v>840</v>
-      </c>
-      <c r="H5" s="52">
+      <c r="G5" s="51">
         <v>10000</v>
       </c>
-      <c r="I5" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="52">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54">
-        <v>1</v>
-      </c>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="H5" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="51">
+        <v>1</v>
+      </c>
+      <c r="J5" s="53">
+        <v>1</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+    </row>
+    <row r="6" spans="1:20" ht="15">
       <c r="A6" s="33">
         <v>585803</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="52">
+      <c r="B6" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="51">
         <v>727</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <v>369</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>320</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <v>2</v>
       </c>
-      <c r="G6" s="52">
-        <v>840</v>
-      </c>
-      <c r="H6" s="52">
+      <c r="G6" s="51">
         <v>10000</v>
       </c>
-      <c r="I6" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="52">
-        <v>1</v>
-      </c>
-      <c r="K6" s="54">
-        <v>1</v>
-      </c>
-      <c r="L6" s="55"/>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="H6" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="51">
+        <v>1</v>
+      </c>
+      <c r="J6" s="53">
+        <v>1</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+    </row>
+    <row r="7" spans="1:20" ht="15">
       <c r="A7" s="33">
         <v>956327</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="52">
+        <v>213</v>
+      </c>
+      <c r="C7" s="51">
         <v>727</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <v>369</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>320</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <v>2</v>
       </c>
-      <c r="G7" s="52">
-        <v>840</v>
-      </c>
-      <c r="H7" s="52">
+      <c r="G7" s="51">
         <v>10000</v>
       </c>
-      <c r="I7" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="52">
-        <v>1</v>
-      </c>
-      <c r="K7" s="54">
-        <v>1</v>
-      </c>
-      <c r="L7" s="55"/>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="H7" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="51">
+        <v>1</v>
+      </c>
+      <c r="J7" s="53">
+        <v>1</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+    </row>
+    <row r="8" spans="1:20" ht="15">
       <c r="A8" s="33">
         <v>594207</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="52">
+        <v>212</v>
+      </c>
+      <c r="C8" s="51">
         <v>727</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="51">
         <v>369</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>320</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <v>2</v>
       </c>
-      <c r="G8" s="52">
-        <v>840</v>
-      </c>
-      <c r="H8" s="52">
+      <c r="G8" s="51">
         <v>10000</v>
       </c>
-      <c r="I8" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="52">
-        <v>1</v>
-      </c>
-      <c r="K8" s="54">
-        <v>1</v>
-      </c>
-      <c r="L8" s="52">
+      <c r="H8" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="51">
+        <v>1</v>
+      </c>
+      <c r="J8" s="53">
+        <v>1</v>
+      </c>
+      <c r="K8" s="51">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="L8" s="58"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+    </row>
+    <row r="9" spans="1:20" ht="15">
       <c r="A9" s="33">
         <v>834702</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="52">
+        <v>214</v>
+      </c>
+      <c r="C9" s="51">
         <v>727</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="51">
         <v>369</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>320</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <v>2</v>
       </c>
-      <c r="G9" s="52">
-        <v>840</v>
-      </c>
-      <c r="H9" s="52">
+      <c r="G9" s="51">
         <v>10000</v>
       </c>
-      <c r="I9" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="52">
-        <v>1</v>
-      </c>
-      <c r="K9" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="H9" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="51">
+        <v>1</v>
+      </c>
+      <c r="J9" s="51">
+        <v>1</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+    </row>
+    <row r="10" spans="1:20" ht="15">
       <c r="A10" s="33">
         <v>816212</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="52">
+        <v>215</v>
+      </c>
+      <c r="C10" s="51">
         <v>727</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="51">
         <v>369</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <v>320</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <v>2</v>
       </c>
-      <c r="G10" s="52">
-        <v>840</v>
-      </c>
-      <c r="H10" s="52">
+      <c r="G10" s="51">
         <v>10000</v>
       </c>
-      <c r="I10" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="52">
-        <v>1</v>
-      </c>
-      <c r="K10" s="52">
-        <v>1</v>
-      </c>
-      <c r="L10" s="52">
+      <c r="H10" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="51">
+        <v>1</v>
+      </c>
+      <c r="J10" s="51">
+        <v>1</v>
+      </c>
+      <c r="K10" s="51">
         <v>70</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="37">
+        <v>434947</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="51">
+        <v>727</v>
+      </c>
+      <c r="D11" s="51">
+        <v>369</v>
+      </c>
+      <c r="E11" s="51">
+        <v>320</v>
+      </c>
+      <c r="F11" s="51">
+        <v>2</v>
+      </c>
+      <c r="G11" s="51">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51">
+        <v>1</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="53">
+        <v>5588</v>
+      </c>
+      <c r="M11" s="62"/>
+      <c r="N11" s="54">
+        <v>2</v>
+      </c>
+      <c r="O11" s="51">
+        <v>11</v>
+      </c>
+      <c r="P11" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>1</v>
+      </c>
+      <c r="R11" s="54">
+        <v>1</v>
+      </c>
+      <c r="S11" s="54">
+        <v>15</v>
+      </c>
+      <c r="T11" s="54">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4363,25 +4561,25 @@
         <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -4389,22 +4587,22 @@
         <v>280606</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>564</v>
       </c>
       <c r="D2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>96</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="36">
         <v>840</v>

--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="TestExecution" sheetId="7" r:id="rId6"/>
     <sheet name="FMS_AppforFinancialfacility" sheetId="9" r:id="rId7"/>
     <sheet name="FMS_CollateralManagement" sheetId="10" r:id="rId8"/>
+    <sheet name="RequestForFinancing" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="264">
   <si>
     <t>Password</t>
   </si>
@@ -701,6 +702,123 @@
   </si>
   <si>
     <t>FMMarginRate</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>Search Code</t>
+  </si>
+  <si>
+    <t>Application For</t>
+  </si>
+  <si>
+    <t>CIF No</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Committee Member</t>
+  </si>
+  <si>
+    <t>Reason For Submission</t>
+  </si>
+  <si>
+    <t>Customer CIF</t>
+  </si>
+  <si>
+    <t>Total Limit</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>Margin Value</t>
+  </si>
+  <si>
+    <t>No of Payments</t>
+  </si>
+  <si>
+    <t>Estimator Name</t>
+  </si>
+  <si>
+    <t>Send Alert User</t>
+  </si>
+  <si>
+    <t>Reference Code</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Forward To</t>
+  </si>
+  <si>
+    <t>Approval Committee</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Decision3</t>
+  </si>
+  <si>
+    <t>Solicitor Date Sent</t>
+  </si>
+  <si>
+    <t>Solicitor Date Received</t>
+  </si>
+  <si>
+    <t>Estimator Date Sent</t>
+  </si>
+  <si>
+    <t>Estimator Date Received</t>
+  </si>
+  <si>
+    <t>Custodian Date Sent</t>
+  </si>
+  <si>
+    <t>New Facility Rating</t>
+  </si>
+  <si>
+    <t>Suspend Reason</t>
+  </si>
+  <si>
+    <t>At Least One Member</t>
+  </si>
+  <si>
+    <t>New Request</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Investment Committee</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawdowntype </t>
+  </si>
+  <si>
+    <t>DiscriptionEnglish</t>
+  </si>
+  <si>
+    <t>Discriptionarab</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Datesubmitted</t>
+  </si>
+  <si>
+    <t>Valuedate</t>
+  </si>
+  <si>
+    <t>15/01/2021</t>
   </si>
 </sst>
 </file>
@@ -782,7 +900,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,7 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +1041,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1042,13 +1166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1387,7 +1512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
@@ -3282,7 +3407,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -3527,7 +3652,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -3998,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4119,14 +4244,14 @@
       </c>
       <c r="K2" s="51"/>
       <c r="L2" s="53"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
     </row>
     <row r="3" spans="1:20" ht="15">
       <c r="A3" s="33">
@@ -4161,14 +4286,14 @@
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="58"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="33">
@@ -4203,14 +4328,14 @@
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="58"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="33">
@@ -4245,14 +4370,14 @@
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="58"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
     </row>
     <row r="6" spans="1:20" ht="15">
       <c r="A6" s="33">
@@ -4287,14 +4412,14 @@
       </c>
       <c r="K6" s="54"/>
       <c r="L6" s="58"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
     </row>
     <row r="7" spans="1:20" ht="15">
       <c r="A7" s="33">
@@ -4329,14 +4454,14 @@
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="58"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
     </row>
     <row r="8" spans="1:20" ht="15">
       <c r="A8" s="33">
@@ -4373,14 +4498,14 @@
         <v>70</v>
       </c>
       <c r="L8" s="58"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
     </row>
     <row r="9" spans="1:20" ht="15">
       <c r="A9" s="33">
@@ -4415,14 +4540,14 @@
       </c>
       <c r="K9" s="54"/>
       <c r="L9" s="58"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
     </row>
     <row r="10" spans="1:20" ht="15">
       <c r="A10" s="33">
@@ -4459,14 +4584,14 @@
         <v>70</v>
       </c>
       <c r="L10" s="58"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="37">
@@ -4503,7 +4628,7 @@
       <c r="L11" s="53">
         <v>5588</v>
       </c>
-      <c r="M11" s="62"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="54">
         <v>2</v>
       </c>
@@ -4615,4 +4740,414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1"/>
+    <col min="30" max="30" width="24.28515625" customWidth="1"/>
+    <col min="31" max="31" width="33.85546875" customWidth="1"/>
+    <col min="32" max="32" width="40.140625" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" customWidth="1"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="35" max="35" width="25" customWidth="1"/>
+    <col min="36" max="36" width="22.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.85546875" style="29" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="60" customFormat="1">
+      <c r="A1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="W1" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="X1" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB1" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC1" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD1" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE1" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF1" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG1" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH1" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI1" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ1" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK1" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL1" s="63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="37">
+        <v>127920</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62">
+        <v>19</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="62">
+        <v>727</v>
+      </c>
+      <c r="N2" s="62">
+        <v>100</v>
+      </c>
+      <c r="O2" s="62">
+        <v>1</v>
+      </c>
+      <c r="P2" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="X2" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ2" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK2" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL2" s="67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="62"/>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="62"/>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="62"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="62"/>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="R13" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="303">
   <si>
     <t>Password</t>
   </si>
@@ -388,9 +388,6 @@
     <t xml:space="preserve">  Sprint-2</t>
   </si>
   <si>
-    <t>Not completed</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
@@ -617,9 +614,6 @@
     <t>AT_CM_009</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Collateral Management</t>
   </si>
   <si>
@@ -629,9 +623,6 @@
     <t>AT_CM_049</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Webservice on Hold </t>
   </si>
   <si>
@@ -819,6 +810,132 @@
   </si>
   <si>
     <t>15/01/2021</t>
+  </si>
+  <si>
+    <t>AT_CM_046</t>
+  </si>
+  <si>
+    <t>AT_CM_047</t>
+  </si>
+  <si>
+    <t>AT_CM_048</t>
+  </si>
+  <si>
+    <t>descoped</t>
+  </si>
+  <si>
+    <t>sprint 10</t>
+  </si>
+  <si>
+    <t>AT_RP_002</t>
+  </si>
+  <si>
+    <t>AT_RP_006</t>
+  </si>
+  <si>
+    <t>Repayment Plan</t>
+  </si>
+  <si>
+    <t>AT_CG_017</t>
+  </si>
+  <si>
+    <t>AT_CG_018</t>
+  </si>
+  <si>
+    <t>AT_CG_019</t>
+  </si>
+  <si>
+    <t>AT_CG_020</t>
+  </si>
+  <si>
+    <t>AT_AE_001</t>
+  </si>
+  <si>
+    <t>AT_AE_001_01</t>
+  </si>
+  <si>
+    <t>AT_AE_002</t>
+  </si>
+  <si>
+    <t>sprint 11</t>
+  </si>
+  <si>
+    <t>IMAL-8369</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Customer Grading</t>
+  </si>
+  <si>
+    <t>Accounting Entries</t>
+  </si>
+  <si>
+    <t>AT_AE_002_01</t>
+  </si>
+  <si>
+    <t>AT_AD_004</t>
+  </si>
+  <si>
+    <t>AT_AD_005</t>
+  </si>
+  <si>
+    <t>AT_AD_007</t>
+  </si>
+  <si>
+    <t>AT_AD_008</t>
+  </si>
+  <si>
+    <t>Accrual Deal</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Carryforwarded to sprint 13</t>
+  </si>
+  <si>
+    <t>sprint 13</t>
+  </si>
+  <si>
+    <t>AT_AD_006</t>
+  </si>
+  <si>
+    <t>AT_AD_009</t>
+  </si>
+  <si>
+    <t>AT_AP_013</t>
+  </si>
+  <si>
+    <t>AT_AP_014</t>
+  </si>
+  <si>
+    <t>Accrual Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> completed</t>
+  </si>
+  <si>
+    <t>DrawDownType</t>
+  </si>
+  <si>
+    <t>ValueDate</t>
+  </si>
+  <si>
+    <t>ProductClass</t>
+  </si>
+  <si>
+    <t>DiscriptionEng</t>
+  </si>
+  <si>
+    <t>DiscriptionArab</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -894,13 +1011,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,12 +1062,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -962,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1026,6 +1137,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1041,7 +1215,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1112,37 +1286,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,14 +1316,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1520,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
@@ -1566,1765 +1818,2674 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="66">
         <v>862778</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="67">
+        <v>771445</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="67">
+        <v>280446</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="67">
+        <v>299876</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="67">
+        <v>299492</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="67">
+        <v>347028</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="67">
+        <v>280446</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="67">
+        <v>585803</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="67">
+        <v>570631</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="67">
+        <v>127917</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="67">
+        <v>127925</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="67">
+        <v>127926</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="41">
+        <v>127925</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="41">
+        <v>678142</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="41">
+        <v>678143</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="41">
+        <v>678324</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="41">
+        <v>653133</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="41">
+        <v>654404</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="41">
+        <v>640897</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="41">
+        <v>640956</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="41">
+        <v>434947</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="41">
+        <v>654367</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="41">
+        <v>640874</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="41">
+        <v>468154</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="41">
+        <v>468161</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="41">
+        <v>468167</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="41">
+        <v>584047</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="41">
+        <v>584557</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="41">
+        <v>585161</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="41">
+        <v>584744</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="41">
+        <v>771445</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="41">
+        <v>299876</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="41">
+        <v>299492</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="41">
+        <v>749202</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G43" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="44">
-        <v>771445</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="H43" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="41">
+        <v>759182</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G44" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="44">
-        <v>280446</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="47" t="s">
+      <c r="H44" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="41">
+        <v>127919</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G45" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="44">
-        <v>299876</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45" t="s">
+      <c r="H45" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="41">
+        <v>127920</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G46" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="44">
-        <v>299492</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45" t="s">
+      <c r="H46" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="41">
+        <v>808942</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G49" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="44">
-        <v>347028</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45" t="s">
+      <c r="H49" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="41">
+        <v>809575</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G50" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="44">
-        <v>280446</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
+      <c r="H50" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="41">
+        <v>841963</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G51" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="44">
-        <v>585803</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
+      <c r="H51" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="41">
+        <v>850741</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45" t="s">
+      <c r="E52" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="41">
+        <v>868316</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="41">
+        <v>127874</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="41">
+        <v>127878</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="41">
+        <v>396824</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="41">
+        <v>586558</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G59" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="41">
+        <v>586526</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="44">
-        <v>570631</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="44">
-        <v>127917</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45" t="s">
+      <c r="G60" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="H60" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="41">
+        <v>586527</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="44">
-        <v>127925</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="44">
-        <v>127926</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="46">
-        <v>127925</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="46">
-        <v>678142</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="46">
-        <v>678143</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="46">
-        <v>678324</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="46">
-        <v>653133</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="46">
-        <v>654404</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="46">
-        <v>640897</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="46">
-        <v>640956</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="46">
-        <v>434947</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="46">
-        <v>654367</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="46">
-        <v>640874</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="46">
-        <v>468154</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="46">
-        <v>468161</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="46">
-        <v>468167</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="46">
-        <v>584047</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="46">
-        <v>584557</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="46">
-        <v>585161</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="46">
-        <v>584744</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="46">
-        <v>771445</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="46">
-        <v>299876</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="46">
-        <v>299492</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="46">
-        <v>749202</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="46">
-        <v>759182</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="46">
-        <v>127919</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="46">
-        <v>127920</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="46">
-        <v>808942</v>
-      </c>
-      <c r="C49" s="46" t="s">
+      <c r="G61" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="46">
-        <v>809575</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="46">
-        <v>841963</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="46">
-        <v>850741</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="46">
-        <v>868316</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="46">
-        <v>127874</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="46" t="s">
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="46">
-        <v>127878</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="46" t="s">
+      <c r="B62" s="41">
+        <v>586528</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="68"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H55" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="46">
-        <v>396824</v>
-      </c>
-      <c r="C58" s="46" t="s">
+      <c r="B63" s="41">
+        <v>827643</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="46">
-        <v>586558</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="46">
-        <v>586526</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="46"/>
-      <c r="F60" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H60" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="46">
-        <v>586527</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="46">
-        <v>586528</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="46" t="s">
+      <c r="E63" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="41">
+        <v>827644</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="41">
+        <v>140587</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="41">
+        <v>140601</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="41">
+        <v>326293</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="41">
+        <v>316166</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="41"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="41">
+        <v>326280</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45">
+      <c r="A72" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="41">
+        <v>402676</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="41">
+        <v>879358</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="41"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75">
+      <c r="A76" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="70">
+        <v>127860</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H76" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75">
+      <c r="A77" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="70">
+        <v>1057761</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H77" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75">
+      <c r="A78" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="70">
+        <v>1057762</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H78" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75">
+      <c r="A79" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="70">
+        <v>1057763</v>
+      </c>
+      <c r="C79" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H79" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75">
+      <c r="A80" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="70">
+        <v>1090798</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75">
+      <c r="A81" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="70">
+        <v>1090800</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H81" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75">
+      <c r="A82" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="70">
+        <v>1090801</v>
+      </c>
+      <c r="C82" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75">
+      <c r="A83" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="70">
+        <v>1090803</v>
+      </c>
+      <c r="C83" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75">
+      <c r="A84" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="70">
+        <v>1166910</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="H84" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75">
+      <c r="A85" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="74">
+        <v>616977</v>
+      </c>
+      <c r="C85" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" s="72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75">
+      <c r="A86" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="74">
+        <v>1265137</v>
+      </c>
+      <c r="C86" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H86" s="72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75">
+      <c r="A87" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="74">
+        <v>1265138</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H87" s="72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75">
+      <c r="A88" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="77">
+        <v>280606</v>
+      </c>
+      <c r="C88" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H88" s="72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="80">
+        <v>956327</v>
+      </c>
+      <c r="C91" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" s="80">
+        <v>651656</v>
+      </c>
+      <c r="C92" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G92" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H92" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="80">
+        <v>594207</v>
+      </c>
+      <c r="C93" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" s="80">
+        <v>816212</v>
+      </c>
+      <c r="C94" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" s="80">
+        <v>834702</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H95" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="80">
+        <v>857301</v>
+      </c>
+      <c r="C96" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H96" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="80">
+        <v>140567</v>
+      </c>
+      <c r="C99" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="F99" s="79"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="80">
+        <v>140632</v>
+      </c>
+      <c r="C100" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="F100" s="79"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" s="80">
+        <v>140707</v>
+      </c>
+      <c r="C101" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F101" s="79"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="84">
+        <v>288807</v>
+      </c>
+      <c r="C102" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="81">
+        <v>953616</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" s="79"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="81">
+        <v>953616</v>
+      </c>
+      <c r="C104" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G104" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H104" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="86">
+        <v>834132</v>
+      </c>
+      <c r="C105" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G105" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H105" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" s="86">
+        <v>834132</v>
+      </c>
+      <c r="C106" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="71">
+        <v>128351</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H110" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" s="71">
+        <v>128352</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H111" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="71">
+        <v>128354</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H112" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113" s="71">
+        <v>128355</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="E113" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="G113" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="H113" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114" s="71">
+        <v>827643</v>
+      </c>
+      <c r="C114" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="E62" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="46">
-        <v>827643</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="46" t="s">
+      <c r="D114" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H114" s="71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B115" s="71">
+        <v>827644</v>
+      </c>
+      <c r="C115" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="F63" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="G63" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="46">
-        <v>827644</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="46">
-        <v>140587</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="46">
-        <v>140601</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="46">
-        <v>326293</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G69" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70" s="46">
-        <v>316166</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71" s="46">
-        <v>326280</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="F71" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G71" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="H71" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="45">
-      <c r="A72" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" s="46">
-        <v>402676</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="46">
-        <v>879358</v>
-      </c>
-      <c r="C73" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="46"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B76" s="46">
-        <v>1057763</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="H76" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B77" s="46">
-        <v>1090798</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E77" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="H77" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B78" s="46">
-        <v>1090800</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F78" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="H78" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B79" s="46">
-        <v>1090801</v>
-      </c>
-      <c r="C79" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="H79" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B80" s="46">
-        <v>1090803</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="H80" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="46">
-        <v>1166910</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="H81" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B82" s="46">
-        <v>616977</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="46">
-        <v>1265137</v>
-      </c>
-      <c r="C83" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B84" s="46">
-        <v>1265138</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46" t="s">
-        <v>210</v>
+      <c r="D115" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115" s="71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="71">
+        <v>128355</v>
+      </c>
+      <c r="C118" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119" s="71">
+        <v>128353</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="71">
+        <v>128356</v>
+      </c>
+      <c r="C120" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" s="71">
+        <v>131160</v>
+      </c>
+      <c r="C121" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="71" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="78">
+        <v>131585</v>
+      </c>
+      <c r="C122" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="71" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="61"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="71"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="D125" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4121,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4147,9 +5308,14 @@
     <col min="18" max="18" width="18.85546875" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" customWidth="1"/>
     <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="29" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1">
+    <row r="1" spans="1:25" s="32" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
@@ -4180,475 +5346,648 @@
       <c r="J1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="57" t="s">
-        <v>211</v>
+      <c r="K1" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="L1" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="P1" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="Q1" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="R1" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="S1" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="T1" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" s="59" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="28" customFormat="1" ht="15">
+      <c r="U1" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="V1" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="W1" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="X1" s="93" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y1" s="93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="28" customFormat="1" ht="15">
       <c r="A2" s="33">
         <v>127878</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="43">
         <v>727</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="43">
         <v>369</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="43">
         <v>320</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="43">
         <v>2</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="43">
         <v>10000</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="51">
-        <v>1</v>
-      </c>
-      <c r="J2" s="53">
-        <v>1</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-    </row>
-    <row r="3" spans="1:20" ht="15">
+      <c r="I2" s="43">
+        <v>1</v>
+      </c>
+      <c r="J2" s="45">
+        <v>1</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+    </row>
+    <row r="3" spans="1:25" ht="15">
       <c r="A3" s="33">
         <v>1265137</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="43">
         <v>727</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="43">
         <v>369</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="43">
         <v>320</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="43">
         <v>2</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="43">
         <v>10000</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="51">
-        <v>1</v>
-      </c>
-      <c r="J3" s="53">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="I3" s="43">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="33">
         <v>1265138</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="43">
         <v>727</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="43">
         <v>369</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="43">
         <v>320</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="43">
         <v>2</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="43">
         <v>10000</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="51">
-        <v>1</v>
-      </c>
-      <c r="J4" s="53">
-        <v>1</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="I4" s="43">
+        <v>1</v>
+      </c>
+      <c r="J4" s="45">
+        <v>1</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="33">
         <v>616977</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="43">
         <v>727</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <v>369</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="43">
         <v>320</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="43">
         <v>2</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="43">
         <v>10000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="51">
-        <v>1</v>
-      </c>
-      <c r="J5" s="53">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-    </row>
-    <row r="6" spans="1:20" ht="15">
+      <c r="I5" s="43">
+        <v>1</v>
+      </c>
+      <c r="J5" s="45">
+        <v>1</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+    </row>
+    <row r="6" spans="1:25" ht="15">
       <c r="A6" s="33">
         <v>585803</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <v>727</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="43">
         <v>369</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="43">
         <v>320</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="43">
         <v>2</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="43">
         <v>10000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="51">
-        <v>1</v>
-      </c>
-      <c r="J6" s="53">
-        <v>1</v>
-      </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-    </row>
-    <row r="7" spans="1:20" ht="15">
+      <c r="I6" s="43">
+        <v>1</v>
+      </c>
+      <c r="J6" s="45">
+        <v>1</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+    </row>
+    <row r="7" spans="1:25" ht="15">
       <c r="A7" s="33">
         <v>956327</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="51">
+        <v>210</v>
+      </c>
+      <c r="C7" s="43">
         <v>727</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="43">
         <v>369</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="43">
         <v>320</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="43">
         <v>2</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="43">
         <v>10000</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="51">
-        <v>1</v>
-      </c>
-      <c r="J7" s="53">
-        <v>1</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-    </row>
-    <row r="8" spans="1:20" ht="15">
+      <c r="I7" s="43">
+        <v>1</v>
+      </c>
+      <c r="J7" s="45">
+        <v>1</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+    </row>
+    <row r="8" spans="1:25" ht="15">
       <c r="A8" s="33">
         <v>594207</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="51">
+        <v>209</v>
+      </c>
+      <c r="C8" s="43">
         <v>727</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>369</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <v>320</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="43">
         <v>2</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <v>10000</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="51">
-        <v>1</v>
-      </c>
-      <c r="J8" s="53">
-        <v>1</v>
-      </c>
-      <c r="K8" s="51">
+      <c r="I8" s="43">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45">
+        <v>1</v>
+      </c>
+      <c r="K8" s="43">
         <v>70</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-    </row>
-    <row r="9" spans="1:20" ht="15">
+      <c r="L8" s="50"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+    </row>
+    <row r="9" spans="1:25" ht="15">
       <c r="A9" s="33">
         <v>834702</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="51">
+        <v>211</v>
+      </c>
+      <c r="C9" s="43">
         <v>727</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="43">
         <v>369</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="43">
         <v>320</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="43">
         <v>2</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="43">
         <v>10000</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="51">
-        <v>1</v>
-      </c>
-      <c r="J9" s="51">
-        <v>1</v>
-      </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-    </row>
-    <row r="10" spans="1:20" ht="15">
+      <c r="I9" s="43">
+        <v>1</v>
+      </c>
+      <c r="J9" s="43">
+        <v>1</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+    </row>
+    <row r="10" spans="1:25" ht="15">
       <c r="A10" s="33">
         <v>816212</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="51">
+        <v>212</v>
+      </c>
+      <c r="C10" s="43">
         <v>727</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="43">
         <v>369</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="43">
         <v>320</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="43">
         <v>2</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="43">
         <v>10000</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="51">
-        <v>1</v>
-      </c>
-      <c r="J10" s="51">
-        <v>1</v>
-      </c>
-      <c r="K10" s="51">
+      <c r="I10" s="43">
+        <v>1</v>
+      </c>
+      <c r="J10" s="43">
+        <v>1</v>
+      </c>
+      <c r="K10" s="43">
         <v>70</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="37">
+      <c r="L10" s="50"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="33">
         <v>434947</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="51">
+      <c r="B11" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="43">
         <v>727</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="43">
         <v>369</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="43">
         <v>320</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="43">
         <v>2</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="43">
         <v>10000</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="51">
-        <v>1</v>
-      </c>
-      <c r="J11" s="51">
-        <v>1</v>
-      </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="53">
+      <c r="I11" s="43">
+        <v>1</v>
+      </c>
+      <c r="J11" s="43">
+        <v>1</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="45">
         <v>5588</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="54">
+      <c r="M11" s="43"/>
+      <c r="N11" s="46">
         <v>2</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="43">
         <v>11</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="54">
-        <v>1</v>
-      </c>
-      <c r="R11" s="54">
-        <v>1</v>
-      </c>
-      <c r="S11" s="54">
+      <c r="Q11" s="46">
+        <v>1</v>
+      </c>
+      <c r="R11" s="46">
+        <v>1</v>
+      </c>
+      <c r="S11" s="46">
         <v>15</v>
       </c>
-      <c r="T11" s="54">
+      <c r="T11" s="46">
         <v>5</v>
+      </c>
+      <c r="U11" s="54"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="33">
+        <v>678142</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="43">
+        <v>727</v>
+      </c>
+      <c r="D12" s="43">
+        <v>697</v>
+      </c>
+      <c r="E12" s="43">
+        <v>320</v>
+      </c>
+      <c r="F12" s="43">
+        <v>2</v>
+      </c>
+      <c r="G12" s="43">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="43">
+        <v>1</v>
+      </c>
+      <c r="J12" s="43">
+        <v>1</v>
+      </c>
+      <c r="K12" s="43">
+        <v>70</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="33">
+        <v>808942</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="43">
+        <v>727</v>
+      </c>
+      <c r="D13" s="43">
+        <v>697</v>
+      </c>
+      <c r="E13" s="43">
+        <v>320</v>
+      </c>
+      <c r="F13" s="43">
+        <v>2</v>
+      </c>
+      <c r="G13" s="43">
+        <v>10000</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="43">
+        <v>1</v>
+      </c>
+      <c r="J13" s="43">
+        <v>1</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="50">
+        <v>1</v>
+      </c>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="97">
+        <v>1</v>
+      </c>
+      <c r="V13" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="W13" s="97">
+        <v>1</v>
+      </c>
+      <c r="X13" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y13" s="56" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +6085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
@@ -4791,357 +6130,357 @@
     <col min="38" max="38" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="60" customFormat="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:38" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="F1" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="K1" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="L1" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="60" t="s">
+      <c r="M1" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="N1" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="O1" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="P1" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="Q1" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="R1" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="T1" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="U1" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="60" t="s">
+      <c r="V1" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="W1" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="X1" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="Y1" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="Z1" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="AA1" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="AB1" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="Z1" s="60" t="s">
+      <c r="AC1" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="AA1" s="60" t="s">
+      <c r="AD1" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="AB1" s="60" t="s">
+      <c r="AE1" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="AC1" s="60" t="s">
+      <c r="AF1" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="60" t="s">
+      <c r="AG1" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="AE1" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF1" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG1" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH1" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AH1" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI1" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ1" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK1" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AL1" s="55" t="s">
         <v>259</v>
-      </c>
-      <c r="AK1" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL1" s="63" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="37">
         <v>127920</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62">
+      <c r="B2" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54">
         <v>19</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="54">
+        <v>727</v>
+      </c>
+      <c r="N2" s="54">
+        <v>100</v>
+      </c>
+      <c r="O2" s="54">
+        <v>1</v>
+      </c>
+      <c r="P2" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="X2" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="Y2" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="M2" s="62">
-        <v>727</v>
-      </c>
-      <c r="N2" s="62">
-        <v>100</v>
-      </c>
-      <c r="O2" s="62">
-        <v>1</v>
-      </c>
-      <c r="P2" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="W2" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="X2" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y2" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="64" t="s">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ2" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK2" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="AJ2" s="64" t="s">
+      <c r="AL2" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="AK2" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL2" s="67" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="62"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="54"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="62"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="54"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="62"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="54"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="62"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="54"/>
     </row>
     <row r="13" spans="1:38">
       <c r="R13" s="35"/>

--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="303">
   <si>
     <t>Password</t>
   </si>
@@ -1215,7 +1215,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1425,6 +1425,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1775,7 +1781,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
@@ -1783,8 +1789,8 @@
     <col min="1" max="1" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.85546875" style="3" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="50.85546875" style="21" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="45.140625" style="3" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="43.5703125" style="3" customWidth="1" collapsed="1"/>
@@ -2868,12 +2874,14 @@
       <c r="D49" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>108</v>
+      <c r="E49" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="100" t="s">
+        <v>120</v>
       </c>
       <c r="H49" s="41" t="s">
         <v>158</v>
@@ -2946,7 +2954,7 @@
       <c r="F52" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="91" t="s">
         <v>163</v>
       </c>
       <c r="H52" s="41" t="s">
@@ -2972,7 +2980,7 @@
       <c r="F53" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="91" t="s">
         <v>166</v>
       </c>
       <c r="H53" s="41" t="s">
@@ -2998,7 +3006,7 @@
       <c r="F54" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="91" t="s">
         <v>166</v>
       </c>
       <c r="H54" s="41" t="s">
@@ -3024,7 +3032,7 @@
       <c r="F55" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="G55" s="91" t="s">
         <v>166</v>
       </c>
       <c r="H55" s="41" t="s">
@@ -3070,7 +3078,7 @@
       <c r="F58" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="91" t="s">
         <v>171</v>
       </c>
       <c r="H58" s="41" t="s">
@@ -3096,7 +3104,7 @@
       <c r="F59" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="91" t="s">
         <v>171</v>
       </c>
       <c r="H59" s="41" t="s">
@@ -3146,7 +3154,7 @@
       <c r="F61" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="91" t="s">
         <v>171</v>
       </c>
       <c r="H61" s="41" t="s">
@@ -3169,8 +3177,12 @@
       <c r="E62" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="68"/>
-      <c r="G62" s="41"/>
+      <c r="F62" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" s="91" t="s">
+        <v>180</v>
+      </c>
       <c r="H62" s="41" t="s">
         <v>158</v>
       </c>
@@ -3194,7 +3206,7 @@
       <c r="F63" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="91" t="s">
         <v>171</v>
       </c>
       <c r="H63" s="41" t="s">
@@ -3220,7 +3232,7 @@
       <c r="F64" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="91" t="s">
         <v>171</v>
       </c>
       <c r="H64" s="41" t="s">
@@ -5282,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5382,7 +5394,7 @@
       <c r="V1" s="94" t="s">
         <v>298</v>
       </c>
-      <c r="W1" s="93" t="s">
+      <c r="W1" s="51" t="s">
         <v>299</v>
       </c>
       <c r="X1" s="93" t="s">
@@ -5987,6 +5999,65 @@
         <v>302</v>
       </c>
       <c r="Y13" s="56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="101">
+        <v>841963</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="43">
+        <v>727</v>
+      </c>
+      <c r="D14" s="43">
+        <v>697</v>
+      </c>
+      <c r="E14" s="43">
+        <v>320</v>
+      </c>
+      <c r="F14" s="43">
+        <v>2</v>
+      </c>
+      <c r="G14" s="43">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="43">
+        <v>1</v>
+      </c>
+      <c r="J14" s="43">
+        <v>1</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="50">
+        <v>1</v>
+      </c>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="97">
+        <v>1</v>
+      </c>
+      <c r="V14" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="97">
+        <v>1</v>
+      </c>
+      <c r="X14" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y14" s="56" t="s">
         <v>302</v>
       </c>
     </row>

--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -1770,7 +1770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5296,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:Y14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6071,8 +6071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
